--- a/seeder/router.xlsx
+++ b/seeder/router.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anshu\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F8B306-370E-4D8D-AA45-A22D27749A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="144" windowWidth="21012" windowHeight="9768"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,139 +22,464 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="131">
+  <si>
+    <t xml:space="preserve">EoL Device </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <r>
+      <t>Device is declared EoL by OeM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Increased security vulnerabilities due to lack of updates, potential operational disruptions from system failures</t>
+  </si>
+  <si>
+    <t>Device's ip address</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Upgrade the device</t>
+  </si>
+  <si>
+    <t>Clear-Text Telnet Service Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telnet service was enabled </t>
+  </si>
+  <si>
+    <t>An attacker or malicious user who was able to monitor the network traffic between a Telnet server and client would be able to capture the authentication credentials and any data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Telnet service should be disabled. The Secure Shell (SSH) service need to enable </t>
+  </si>
+  <si>
+    <t>Weak Minimum Password Length Configured</t>
+  </si>
+  <si>
+    <r>
+      <t> Minimum password length was set to six characters.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>With a weak password length requirement configured, an attacker may be able to gain access using a dictionary-based or brute-force attack within a relatively short period of time.</t>
+  </si>
+  <si>
+    <r>
+      <t>It is recommends that a minimum password length of at least eight characters should be configured. This, together with a good password complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Clear-Text SNMP In Use</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Device was configured to use clear-text SNMP</t>
+  </si>
+  <si>
+    <t>An attacker's access to the SNMP MIB would be unrestricted</t>
+  </si>
+  <si>
+    <t>It is recommended that only SNMP version 3 may be configured</t>
+  </si>
+  <si>
+    <t>Weak SNMP Community Strings Were Configured</t>
+  </si>
+  <si>
+    <t>Community strings listed,  found weak allowed write access to the ROUTER SNMP MIB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attacker with write access to the SNMP MIB could modify the configuration of ROUTER </t>
+  </si>
+  <si>
+    <t>SNMP version 3 should be configured. </t>
+  </si>
+  <si>
+    <t>Weak BGP Neighbor Passwords</t>
+  </si>
+  <si>
+    <t>BGP neighbors had been configured with a weak password. </t>
+  </si>
+  <si>
+    <t>  An attacker may attempt to modify the routing table of a routing device in an attempt to route network traffic through a device that they control.</t>
+  </si>
+  <si>
+    <t>Strong MD5 authentication passwords should be configured for all BGP routing updates. Although an attacker could extract the MD5 password authentication hash from a network packet and brute-force the password</t>
+  </si>
+  <si>
+    <t>No Time Synchronization Configured</t>
+  </si>
+  <si>
+    <t>Time synchronization against a network time source was not configured.</t>
+  </si>
+  <si>
+    <t>Without any configured time synchronization, it could be more difficult to correlate events in the logs. This would make a forensic investigation more complex, hindering any troubleshooting and possibly causing issues with time sensitive systems.</t>
+  </si>
+  <si>
+    <t>The system time should be synchronized against a network time source.</t>
+  </si>
+  <si>
+    <t>Weak OSPF Authentication Keys</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>weak OSPF authentication keys were configured</t>
+  </si>
+  <si>
+    <t>An attacker may attempt to modify the routing table of a routing device in an attempt to route network traffic through a device that they control. They may be able to do this by sending a malicious OSPF route update.</t>
+  </si>
+  <si>
+    <t>Strong OSPF authentication keys should be configured for all routing updates.</t>
+  </si>
+  <si>
+    <t>Weak TACACS+ Server Key</t>
+  </si>
+  <si>
+    <t>The TACACS+ server keys were tested to check their strength against the criteria outlined in the recommendation</t>
+  </si>
+  <si>
+    <t>An attacker who was able to monitor the authentication traffic could attempt to break the encryption using a brute-force attack.</t>
+  </si>
+  <si>
+    <t>A strong TACACS+ server key should be configured to encrypt the authentication traffic between the device and the TACACS+ server. </t>
+  </si>
+  <si>
+    <t>No BGP Route Flap Prevention</t>
+  </si>
+  <si>
+    <t>BGP route dampening had not been configured on one BGP router process,</t>
+  </si>
+  <si>
+    <t>Excessive route updates, caused by a link status constantly changing between up to down, can impact network routing performance. </t>
+  </si>
+  <si>
+    <t>The system time should only be synchronized against an authenticated NTP time source.</t>
+  </si>
+  <si>
+    <t>No OSPF LSA Threshold</t>
+  </si>
+  <si>
+    <t>one OSPF configuration did not have a LSA message threshold configured</t>
+  </si>
+  <si>
+    <t>An attacker may be able to perform an OSPF DoS by flooding the device with LSA messages.</t>
+  </si>
+  <si>
+    <t> It is recommended that the number of OSPF LSA messages accepted by the device should be limited.</t>
+  </si>
+  <si>
+    <t>ACL Does Not End with Deny All And Log</t>
+  </si>
+  <si>
+    <t>ACLs did not end with a deny all and log </t>
+  </si>
+  <si>
+    <t>ACLs did not end with a deny all and log ACE</t>
+  </si>
+  <si>
+    <t>All denied access should be logged.</t>
+  </si>
+  <si>
+    <t>SNMP Write Access Was Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community strings listed,  allowed write access to the ROUTER </t>
+  </si>
+  <si>
+    <t>SSH Terrapin Prefix Truncation Weakness</t>
+  </si>
+  <si>
+    <t>The remote SSH server is vulnerable to a man-in-the-middle prefix truncation weakness known as Terrapin.</t>
+  </si>
+  <si>
+    <t>This can allow a remote, man-in-the-middle attacker to bypass integrity checks and downgrade the connection's security.</t>
+  </si>
+  <si>
+    <t>CVE-2023-48795, https://terrapin-attack.com/</t>
+  </si>
+  <si>
+    <t>Contact the vendor for an update with the strict key exchange countermeasures or disable the affected algorithms.</t>
+  </si>
+  <si>
+    <t>HTTP and HTTPS is enabled</t>
+  </si>
+  <si>
+    <t>The HTTP and HTTPS is enabled</t>
+  </si>
+  <si>
+    <t>An attacker can perform brute-force attack.</t>
+  </si>
+  <si>
+    <t>it is recommended that the service be disabled to reduce the potential attack surface</t>
+  </si>
+  <si>
+    <t>Default Route</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>Observed default route is configured</t>
+  </si>
+  <si>
+    <t>The Dynamic Routes will not take effect</t>
+  </si>
+  <si>
+    <t>As dynamic routing protocol is being configured. Default route may be removed.</t>
+  </si>
+  <si>
+    <t>IOS Update is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latest version of IOS is available </t>
+  </si>
+  <si>
+    <t>The Device should be patched with latest release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system must be up to date with latest patches. </t>
+  </si>
+  <si>
+    <t>Open ports</t>
+  </si>
+  <si>
+    <t>Open ports are observed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unwanted services/ ports may lead to low performance and increase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential attack surface.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Unwanted services/ ports may be disabled.</t>
+  </si>
+  <si>
+    <t>Slowloris DOS attack</t>
+  </si>
+  <si>
+    <t>Slowloris tries to keep many connections to the target web server open and hold them open as long as possible.</t>
+  </si>
+  <si>
+    <t>It accomplishes this by opening connections to the target web server and sending a partial request. By doing so, it starves the http server's resources causing Denial Of Service.</t>
+  </si>
+  <si>
+    <t>CVE-2007-6750</t>
+  </si>
+  <si>
+    <t>MD5 authentication with a strong key should be configured for all VRRP groups</t>
+  </si>
+  <si>
+    <t>Not All VRRP Groups Were Authenticated</t>
+  </si>
+  <si>
+    <t>VRRP group was configured with no authentication</t>
+  </si>
+  <si>
+    <t>An attacker may attempt to join a VRRP routing group and become the master router.</t>
+  </si>
+  <si>
+    <t>SSH Protocol Version 1 Supported</t>
+  </si>
+  <si>
+    <t>support for SSH protocol version 1 was enabled on NTSR2WWR2.</t>
+  </si>
+  <si>
+    <t>Although flaws have been identified with SSH protocol version 2, fundamental flaws exist in protocol version 1. </t>
+  </si>
+  <si>
+    <t>SSH service should be reconfigured to support only protocol version 2.</t>
+  </si>
+  <si>
+    <t>Low OSPF Router Priorities</t>
+  </si>
+  <si>
+    <t>OSPF priorities were less than 255.</t>
+  </si>
+  <si>
+    <t>An attacker who is able to configure OSPF with the relevant authentication configuration, could configure a higher priority in order to take precedence over the existing router.</t>
+  </si>
+  <si>
+    <t>A high OSPF priority can be configured on Cisco Router devices </t>
+  </si>
+  <si>
+    <t>Low VRRP Router Priority</t>
+  </si>
+  <si>
+    <t>VRRP priority was less than 254,</t>
+  </si>
+  <si>
+    <t>An attacker who is able to configure VRRP with the relevant authentication configuration, could configure a higher priority and force a router election in order to become the master router.</t>
+  </si>
+  <si>
+    <t>It is recommended that the VRRP priority of 254 should be configured. </t>
+  </si>
+  <si>
+    <t>AUX Port Enabled</t>
+  </si>
+  <si>
+    <t>The AUX port was not disabled on Device</t>
+  </si>
+  <si>
+    <t>An attacker was able to connect to the device remotely, then they may be able to brute-force the login to gain remote administrative access to the NTSR2WWR2.</t>
+  </si>
+  <si>
+    <t> if not required, the AUX port should be disabled.</t>
+  </si>
+  <si>
+    <t>NTP Authentication Disabled</t>
+  </si>
+  <si>
+    <t>authenticated time synchronization against a NTP time source was disabled.</t>
+  </si>
+  <si>
+    <t>an attacker is able to modify, or send, an inacurate time update, it could make it more difficult to correlate events in the logs. This would make a forrensic investigation more complex</t>
+  </si>
+  <si>
+    <t>BOOTP Service Enabled</t>
+  </si>
+  <si>
+    <t>BOOTP was not disabled</t>
+  </si>
+  <si>
+    <t>An attacker could use the BOOTP service to download a copy of the device's OS software.</t>
+  </si>
+  <si>
+    <t>If not required, the BOOTP service should be disabled.</t>
+  </si>
+  <si>
+    <t>Proxy ARP Was Enabled</t>
+  </si>
+  <si>
+    <t>Proxy ARP was enabled on one interface.</t>
+  </si>
+  <si>
+    <t>A router that acts as a proxy for ARP requests will extend layer two access across multiple network segments, breaking perimeter security.</t>
+  </si>
+  <si>
+    <t>If not required, proxy ARP should be disabled on all interfaces.</t>
+  </si>
+  <si>
+    <t>Potentially Unused Network Interfaces</t>
+  </si>
+  <si>
+    <t>interfaces were active and potentially unused</t>
+  </si>
+  <si>
+    <t>If unused interfaces are not disabled, an attacker may be able to gain access without risking detection by unplugging an existing connection.</t>
+  </si>
+  <si>
+    <t>The list of potentially unused active network connections should be reviewed and any unused interfaces disabled.</t>
+  </si>
+  <si>
+    <t>Internet Key Exchange (IKE) Aggressive Mode with Pre-Shared Key</t>
+  </si>
+  <si>
+    <t>The remote Internet Key Exchange (IKE) version 1 service seems to support Aggressive Mode with Pre-Shared key (PSK) authentication. </t>
+  </si>
+  <si>
+    <t>Such a configuration could allow an attacker to capture and crack the PSK of a VPN gateway and gain unauthorized access to private networks.</t>
+  </si>
+  <si>
+    <t>http://www.nessus.org/u?d77bc12e,      https://www.securityfocus.com/bid/7423</t>
+  </si>
+  <si>
+    <t>Disable Aggressive Mode if supported.  Do not use Pre-Shared key for authentication if it's possible.</t>
+  </si>
+  <si>
+    <t>Without any configured time synchronization, it could be more difficult to correlate events in the logs. This would make a forensic investigation more complex,</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>vulnarabilityParameter</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
   <si>
     <t>vulnerabilityTypes</t>
-  </si>
-  <si>
-    <t>severity</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>vulnarabilityParameter</t>
-  </si>
-  <si>
-    <t>references</t>
-  </si>
-  <si>
-    <t>recommendation</t>
-  </si>
-  <si>
-    <t>criteria</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description 1 </t>
-  </si>
-  <si>
-    <t>Impact 1</t>
-  </si>
-  <si>
-    <t>vulnerable Parameter 1</t>
-  </si>
-  <si>
-    <t>Referance 1</t>
-  </si>
-  <si>
-    <t>Recommendation 1</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Description 2</t>
-  </si>
-  <si>
-    <t>Description 3</t>
-  </si>
-  <si>
-    <t>Description 4</t>
-  </si>
-  <si>
-    <t>Description 5</t>
-  </si>
-  <si>
-    <t>Impact 2</t>
-  </si>
-  <si>
-    <t>Impact 3</t>
-  </si>
-  <si>
-    <t>Impact 4</t>
-  </si>
-  <si>
-    <t>Impact 5</t>
-  </si>
-  <si>
-    <t>vulnerable Parameter 2</t>
-  </si>
-  <si>
-    <t>vulnerable Parameter 3</t>
-  </si>
-  <si>
-    <t>vulnerable Parameter 4</t>
-  </si>
-  <si>
-    <t>vulnerable Parameter 5</t>
-  </si>
-  <si>
-    <t>Referance 2</t>
-  </si>
-  <si>
-    <t>Referance 3</t>
-  </si>
-  <si>
-    <t>Referance 4</t>
-  </si>
-  <si>
-    <t>Referance 5</t>
-  </si>
-  <si>
-    <t>Recommendation 2</t>
-  </si>
-  <si>
-    <t>Recommendation 3</t>
-  </si>
-  <si>
-    <t>Recommendation 4</t>
-  </si>
-  <si>
-    <t>Recommendation 5</t>
-  </si>
-  <si>
-    <t>Router -1</t>
-  </si>
-  <si>
-    <t>Router -2</t>
-  </si>
-  <si>
-    <t>Router -3</t>
-  </si>
-  <si>
-    <t>Router -4</t>
-  </si>
-  <si>
-    <t>Router -5</t>
-  </si>
-  <si>
-    <t>Router</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,21 +492,89 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
-      <color rgb="FFA7DBF7"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7.7"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -202,29 +601,118 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +750,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -296,6 +784,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,9 +819,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,198 +995,803 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26" style="26" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="48.08984375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="39" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="65" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="78.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="65.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="93" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="70" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="46" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="70" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="70" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="58.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="70" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="47" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="47" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="58.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D31" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
+      <c r="H31" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1" display="https://terrapin-attack.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F30" r:id="rId2" display="http://www.nessus.org/u?d77bc12e,      " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
